--- a/Planificación BASE DE DATOS.xlsx
+++ b/Planificación BASE DE DATOS.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa4\Desktop\Proyecto BD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rafa4\Desktop\Proyecto BD\BD1Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="41">
   <si>
     <t>Semanas</t>
   </si>
@@ -95,16 +95,7 @@
     <t>Comenzar el Back-End</t>
   </si>
   <si>
-    <t>Comenzar Registro e Inicio de Sesion en la aplicación</t>
-  </si>
-  <si>
-    <t>Terminar Interfaz de Registro e Inicio de Sesión</t>
-  </si>
-  <si>
     <t>Terminar Mockups</t>
-  </si>
-  <si>
-    <t>Comenezar a crear la Base de datos según los modelos hechos</t>
   </si>
   <si>
     <r>
@@ -179,6 +170,57 @@
       </rPr>
       <t>(Entrega 1.2)</t>
     </r>
+  </si>
+  <si>
+    <t>Comenezar los scripts de creación de la Base de datos</t>
+  </si>
+  <si>
+    <t>Módulo de Registro e Inicio de Sesión</t>
+  </si>
+  <si>
+    <t>Giancarlos y Rafael</t>
+  </si>
+  <si>
+    <t>Scripts de Creación de Base de datos</t>
+  </si>
+  <si>
+    <t>Modulo de Empleados</t>
+  </si>
+  <si>
+    <t>Inserts de datos</t>
+  </si>
+  <si>
+    <t>Modulo de Clientes</t>
+  </si>
+  <si>
+    <t>Conexión de Base de datos con aplicación</t>
+  </si>
+  <si>
+    <t>Corrección de los Modelos (Sí es necesario)</t>
+  </si>
+  <si>
+    <t>Reportes en la parte de Clientes</t>
+  </si>
+  <si>
+    <t>Reportes en la parte de Empleados</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">7 - 13
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(Programar full)</t>
+    </r>
+  </si>
+  <si>
+    <t>Correciones, Finalización de detalles y preparación para la última entrega</t>
   </si>
 </sst>
 </file>
@@ -240,7 +282,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -505,11 +547,157 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dotted">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="dotted">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -584,6 +772,45 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -890,10 +1117,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.25"/>
@@ -912,7 +1139,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
@@ -987,7 +1214,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>10</v>
@@ -1022,7 +1249,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="21" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>16</v>
@@ -1060,7 +1287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="20"/>
       <c r="B17" s="10" t="s">
         <v>17</v>
@@ -1069,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="25"/>
       <c r="B18" s="11" t="s">
         <v>18</v>
@@ -1078,42 +1305,116 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A19" s="19" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C19" s="16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="20"/>
-      <c r="B20" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="17" t="s">
+    <row r="20" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="26"/>
+      <c r="B20" s="27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="29.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="24"/>
+      <c r="B21" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="34" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="C22" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="32"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="29"/>
+      <c r="B23" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
-      <c r="B21" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="17" t="s">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="29"/>
+      <c r="B24" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="17" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="29"/>
+      <c r="B25" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="31" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="25.5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29"/>
+      <c r="B26" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
-        <v>7</v>
-      </c>
+    <row r="27" spans="1:4" ht="28.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29"/>
+      <c r="B27" s="28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="29"/>
+      <c r="B28" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="C28" s="35" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="38">
+        <v>14</v>
+      </c>
+      <c r="B29" s="37" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>2</v>
+      </c>
+      <c r="D29" s="32"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
+    <mergeCell ref="A22:A28"/>
     <mergeCell ref="A19:A21"/>
     <mergeCell ref="A9:A12"/>
     <mergeCell ref="A5:A8"/>
